--- a/public/samples/sink_import_sample.xlsx
+++ b/public/samples/sink_import_sample.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/llima/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/llima/code/pdm/Emb3rs-Project/platform/public/samples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33482DF9-AAAE-854C-AB1A-2147B12E00F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60C64AA-2E4A-C34C-BD8F-12B41C43FF69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="2280" windowWidth="27640" windowHeight="16940" xr2:uid="{E0F0B471-E22A-A842-B862-9C74F593953D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="120">
   <si>
     <t>supply_temperature</t>
   </si>
@@ -392,6 +392,9 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>ref_system_eff_equipment</t>
   </si>
 </sst>
 </file>
@@ -743,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB3F970-3C1B-2540-B227-1EA2ED2AEFD4}">
-  <dimension ref="A1:CM15"/>
+  <dimension ref="A1:CN15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="CC1" workbookViewId="0">
+      <selection activeCell="CN3" sqref="CN3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -764,7 +767,7 @@
     <col min="82" max="82" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>88</v>
       </c>
@@ -1038,8 +1041,11 @@
       <c r="CM1" t="s">
         <v>87</v>
       </c>
+      <c r="CN1" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="2" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>91</v>
       </c>
@@ -1080,7 +1086,7 @@
         <v>898.09938269999998</v>
       </c>
     </row>
-    <row r="3" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -1121,7 +1127,7 @@
         <v>36.575925929999997</v>
       </c>
     </row>
-    <row r="4" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>91</v>
       </c>
@@ -1162,7 +1168,7 @@
         <v>852.27272730000004</v>
       </c>
     </row>
-    <row r="5" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>91</v>
       </c>
@@ -1203,7 +1209,7 @@
         <v>35.118749999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>91</v>
       </c>
@@ -1244,7 +1250,7 @@
         <v>282.55208329999999</v>
       </c>
     </row>
-    <row r="7" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>91</v>
       </c>
@@ -1285,7 +1291,7 @@
         <v>11.50711806</v>
       </c>
     </row>
-    <row r="8" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>91</v>
       </c>
@@ -1326,7 +1332,7 @@
         <v>271.577381</v>
       </c>
     </row>
-    <row r="9" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>91</v>
       </c>
@@ -1367,7 +1373,7 @@
         <v>1357.8869050000001</v>
       </c>
     </row>
-    <row r="10" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>91</v>
       </c>
@@ -1408,7 +1414,7 @@
         <v>147.437624</v>
       </c>
     </row>
-    <row r="11" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>91</v>
       </c>
@@ -1449,7 +1455,7 @@
         <v>3018.229167</v>
       </c>
     </row>
-    <row r="12" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>91</v>
       </c>
@@ -1490,7 +1496,7 @@
         <v>163.50364579999999</v>
       </c>
     </row>
-    <row r="13" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>91</v>
       </c>
@@ -1531,7 +1537,7 @@
         <v>1672.203745</v>
       </c>
     </row>
-    <row r="14" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>91</v>
       </c>
@@ -1572,7 +1578,7 @@
         <v>68.296378970000006</v>
       </c>
     </row>
-    <row r="15" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>91</v>
       </c>
